--- a/data/pca/factorExposure/factorExposure_2017-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-12-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.008725224928556343</v>
+        <v>0.01283942837811284</v>
       </c>
       <c r="C2">
-        <v>-0.0006184073738063604</v>
+        <v>-0.03968920240780661</v>
       </c>
       <c r="D2">
-        <v>0.02347983068571383</v>
+        <v>0.02856747678484173</v>
       </c>
       <c r="E2">
-        <v>0.06175246407754126</v>
+        <v>0.02772671438891751</v>
       </c>
       <c r="F2">
-        <v>0.005975882813171206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.03315955201813139</v>
+      </c>
+      <c r="G2">
+        <v>0.01050276264344858</v>
+      </c>
+      <c r="H2">
+        <v>0.01080082113319773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08128866626399608</v>
+        <v>0.06743192935324364</v>
       </c>
       <c r="C3">
-        <v>-0.005278655772368425</v>
+        <v>-0.07890677086611787</v>
       </c>
       <c r="D3">
-        <v>-0.044683386426011</v>
+        <v>0.01284389465022012</v>
       </c>
       <c r="E3">
-        <v>0.2420998917807196</v>
+        <v>0.07452139640292395</v>
       </c>
       <c r="F3">
-        <v>0.06116261597351469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.07557243537993831</v>
+      </c>
+      <c r="G3">
+        <v>0.06283189194979588</v>
+      </c>
+      <c r="H3">
+        <v>0.000391726470773133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03414936208991366</v>
+        <v>0.05752820061880051</v>
       </c>
       <c r="C4">
-        <v>0.02156427459014075</v>
+        <v>-0.06154918407546842</v>
       </c>
       <c r="D4">
-        <v>0.03510370178499186</v>
+        <v>0.02135932370099819</v>
       </c>
       <c r="E4">
-        <v>0.03404061954412591</v>
+        <v>-0.002944605627370778</v>
       </c>
       <c r="F4">
-        <v>-0.02903597164721588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01850490200987797</v>
+      </c>
+      <c r="G4">
+        <v>0.03663275876448794</v>
+      </c>
+      <c r="H4">
+        <v>-0.0308849021705232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.05952811190949326</v>
+        <v>0.03140956122124625</v>
       </c>
       <c r="C6">
-        <v>0.01396162996811671</v>
+        <v>-0.05642112404218827</v>
       </c>
       <c r="D6">
-        <v>0.05052310030917549</v>
+        <v>0.01596585946655082</v>
       </c>
       <c r="E6">
-        <v>0.02696427267512087</v>
+        <v>0.002885523612197705</v>
       </c>
       <c r="F6">
-        <v>-0.04951374263624427</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01613255992555584</v>
+      </c>
+      <c r="G6">
+        <v>0.01965564104639723</v>
+      </c>
+      <c r="H6">
+        <v>-0.008539356652885827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02638335122053296</v>
+        <v>0.01860823614378085</v>
       </c>
       <c r="C7">
-        <v>0.06931390579308218</v>
+        <v>-0.03842719371190499</v>
       </c>
       <c r="D7">
-        <v>-0.007682550906287666</v>
+        <v>0.01225997981076962</v>
       </c>
       <c r="E7">
-        <v>0.01003469374165614</v>
+        <v>-0.01611958615145015</v>
       </c>
       <c r="F7">
-        <v>0.01426052187546421</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.00880540884751976</v>
+      </c>
+      <c r="G7">
+        <v>0.07130268085751924</v>
+      </c>
+      <c r="H7">
+        <v>-2.062197447828995e-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01209410387441158</v>
+        <v>-0.004988777000418572</v>
       </c>
       <c r="C8">
-        <v>0.008660464055333047</v>
+        <v>-0.01313167866162989</v>
       </c>
       <c r="D8">
-        <v>0.01605699426100849</v>
+        <v>0.0038192724906513</v>
       </c>
       <c r="E8">
-        <v>0.03343380691982611</v>
+        <v>0.01326184645702417</v>
       </c>
       <c r="F8">
-        <v>0.01337877724414589</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02426937465283285</v>
+      </c>
+      <c r="G8">
+        <v>0.0252957470158558</v>
+      </c>
+      <c r="H8">
+        <v>-0.02165989597843783</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03067929807356798</v>
+        <v>0.02896592151461842</v>
       </c>
       <c r="C9">
-        <v>0.01435296140184158</v>
+        <v>-0.04257153537174426</v>
       </c>
       <c r="D9">
-        <v>0.0233830186889744</v>
+        <v>0.01495353502275386</v>
       </c>
       <c r="E9">
-        <v>0.05277407283606258</v>
+        <v>-0.001606081221623673</v>
       </c>
       <c r="F9">
-        <v>-0.02786463607885193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.01867938208885501</v>
+      </c>
+      <c r="G9">
+        <v>0.02729512586592059</v>
+      </c>
+      <c r="H9">
+        <v>0.003729287243863755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08826715461338754</v>
+        <v>0.08385215287274833</v>
       </c>
       <c r="C10">
-        <v>-0.03496502145958474</v>
+        <v>0.1838359856018006</v>
       </c>
       <c r="D10">
-        <v>-0.1559145543251878</v>
+        <v>-0.01941028889926397</v>
       </c>
       <c r="E10">
-        <v>0.02162268592953703</v>
+        <v>0.01687505935577455</v>
       </c>
       <c r="F10">
-        <v>0.0007294840097993587</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.01349139246139518</v>
+      </c>
+      <c r="G10">
+        <v>0.03366315156920543</v>
+      </c>
+      <c r="H10">
+        <v>0.02768757602567149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02603827197276594</v>
+        <v>0.03622254318412322</v>
       </c>
       <c r="C11">
-        <v>0.002651606144952685</v>
+        <v>-0.05367452872480159</v>
       </c>
       <c r="D11">
-        <v>0.04405401072642119</v>
+        <v>0.0006224136838029026</v>
       </c>
       <c r="E11">
-        <v>0.01499019574856507</v>
+        <v>-0.006825830693484355</v>
       </c>
       <c r="F11">
-        <v>-0.02405232815651788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02677206985841661</v>
+      </c>
+      <c r="G11">
+        <v>0.006728472016528207</v>
+      </c>
+      <c r="H11">
+        <v>-0.0003581896862027693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03246688484128011</v>
+        <v>0.03559756160573505</v>
       </c>
       <c r="C12">
-        <v>0.01046836138739785</v>
+        <v>-0.04546090579788183</v>
       </c>
       <c r="D12">
-        <v>0.04193604165684569</v>
+        <v>0.004942059900873407</v>
       </c>
       <c r="E12">
-        <v>-0.009091153105541384</v>
+        <v>-0.01223054666292411</v>
       </c>
       <c r="F12">
-        <v>-0.003313770469683913</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.006120290632036283</v>
+      </c>
+      <c r="G12">
+        <v>0.01271923407007025</v>
+      </c>
+      <c r="H12">
+        <v>0.003042181519269394</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.02016711097976563</v>
+        <v>0.01158315474340334</v>
       </c>
       <c r="C13">
-        <v>0.000167346278083684</v>
+        <v>-0.03223847983467056</v>
       </c>
       <c r="D13">
-        <v>0.01501809862974032</v>
+        <v>0.02434434251827218</v>
       </c>
       <c r="E13">
-        <v>0.04365840535142411</v>
+        <v>0.01825127238539287</v>
       </c>
       <c r="F13">
-        <v>-0.01526192197935801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03243284954086047</v>
+      </c>
+      <c r="G13">
+        <v>0.02260078237104109</v>
+      </c>
+      <c r="H13">
+        <v>-0.01129966516026928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01591786381276854</v>
+        <v>0.008625859216095783</v>
       </c>
       <c r="C14">
-        <v>0.01522142470754201</v>
+        <v>-0.02513187815706633</v>
       </c>
       <c r="D14">
-        <v>0.00774632327326957</v>
+        <v>0.008053517050870441</v>
       </c>
       <c r="E14">
-        <v>0.01838863441083652</v>
+        <v>-0.005944951063713238</v>
       </c>
       <c r="F14">
-        <v>0.02165903674673825</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0003863409663457908</v>
+      </c>
+      <c r="G14">
+        <v>0.02965010642112572</v>
+      </c>
+      <c r="H14">
+        <v>-0.01739378437376767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02460536351267156</v>
+        <v>0.03222001193514424</v>
       </c>
       <c r="C16">
-        <v>0.00843707542482478</v>
+        <v>-0.04319100607053029</v>
       </c>
       <c r="D16">
-        <v>0.04091442541119196</v>
+        <v>0.0004078574831473827</v>
       </c>
       <c r="E16">
-        <v>0.01573951153218925</v>
+        <v>-0.004207698158962876</v>
       </c>
       <c r="F16">
-        <v>-0.0286349076940604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.01491213407721967</v>
+      </c>
+      <c r="G16">
+        <v>0.01189870816419938</v>
+      </c>
+      <c r="H16">
+        <v>-0.002511092793307428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.02418578884796607</v>
+        <v>0.02790477094559575</v>
       </c>
       <c r="C19">
-        <v>0.005969621482277905</v>
+        <v>-0.05546956364022826</v>
       </c>
       <c r="D19">
-        <v>0.03565051126403698</v>
+        <v>0.01468084564866851</v>
       </c>
       <c r="E19">
-        <v>0.05162376153149573</v>
+        <v>0.03201192832102532</v>
       </c>
       <c r="F19">
-        <v>-0.03535916062149215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.04357822273499827</v>
+      </c>
+      <c r="G19">
+        <v>0.03105364756644578</v>
+      </c>
+      <c r="H19">
+        <v>-0.0365052569363897</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005621558022277165</v>
+        <v>0.01059335084500507</v>
       </c>
       <c r="C20">
-        <v>0.002578428314748716</v>
+        <v>-0.03503233644172236</v>
       </c>
       <c r="D20">
-        <v>0.0001753971994074817</v>
+        <v>0.01276125136626565</v>
       </c>
       <c r="E20">
-        <v>0.02977606611516182</v>
+        <v>0.01739077391174732</v>
       </c>
       <c r="F20">
-        <v>0.007139078918905755</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01031206290213966</v>
+      </c>
+      <c r="G20">
+        <v>0.02198106904323084</v>
+      </c>
+      <c r="H20">
+        <v>-0.01169285844266782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03780018885066628</v>
+        <v>0.0120590994644856</v>
       </c>
       <c r="C21">
-        <v>0.02500309018673504</v>
+        <v>-0.03451638168399783</v>
       </c>
       <c r="D21">
-        <v>0.01634381874510129</v>
+        <v>0.01558372236673877</v>
       </c>
       <c r="E21">
-        <v>0.02336181551890976</v>
+        <v>0.02268247587797292</v>
       </c>
       <c r="F21">
-        <v>-0.01894763630565163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.02154623453145782</v>
+      </c>
+      <c r="G21">
+        <v>0.04473323822296556</v>
+      </c>
+      <c r="H21">
+        <v>-0.01712343950442939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,70 +1295,94 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02377811289485478</v>
+        <v>0.0264683534316548</v>
       </c>
       <c r="C24">
-        <v>0.005581680965795237</v>
+        <v>-0.046658987877881</v>
       </c>
       <c r="D24">
-        <v>0.03498559880572966</v>
+        <v>0.005636846277010167</v>
       </c>
       <c r="E24">
-        <v>0.01456580231387736</v>
+        <v>-0.00977132061489739</v>
       </c>
       <c r="F24">
-        <v>-0.02402373712396508</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02226626500631674</v>
+      </c>
+      <c r="G24">
+        <v>0.01055901010818544</v>
+      </c>
+      <c r="H24">
+        <v>0.003157794779115871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03822694556181309</v>
+        <v>0.04423629756052545</v>
       </c>
       <c r="C25">
-        <v>0.003808544822479442</v>
+        <v>-0.05200407810287539</v>
       </c>
       <c r="D25">
-        <v>0.03698069575986128</v>
+        <v>0.009379317617689302</v>
       </c>
       <c r="E25">
-        <v>0.02719701739310356</v>
+        <v>-0.01633727912246562</v>
       </c>
       <c r="F25">
-        <v>-0.02967721867725581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.01790940818710816</v>
+      </c>
+      <c r="G25">
+        <v>0.01542933110365485</v>
+      </c>
+      <c r="H25">
+        <v>-0.005994161826721044</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.003473480318167133</v>
+        <v>0.002839219767121402</v>
       </c>
       <c r="C26">
-        <v>0.008379051048608468</v>
+        <v>-0.008900019819635853</v>
       </c>
       <c r="D26">
-        <v>-0.002326333760265145</v>
+        <v>0.02387126686922737</v>
       </c>
       <c r="E26">
-        <v>0.03101843910089081</v>
+        <v>0.003390292025371739</v>
       </c>
       <c r="F26">
-        <v>0.02013829223379085</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.007482604925534091</v>
+      </c>
+      <c r="G26">
+        <v>0.02164305024173233</v>
+      </c>
+      <c r="H26">
+        <v>-0.008428669787217864</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,150 +1399,198 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1338166045606752</v>
+        <v>0.1088915273008401</v>
       </c>
       <c r="C28">
-        <v>-0.04953984206783672</v>
+        <v>0.224566768532563</v>
       </c>
       <c r="D28">
-        <v>-0.2245064443912327</v>
+        <v>-0.01082551203037423</v>
       </c>
       <c r="E28">
-        <v>0.008961848557538777</v>
+        <v>0.009840508088255122</v>
       </c>
       <c r="F28">
-        <v>0.008740016394483073</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01017644416514676</v>
+      </c>
+      <c r="G28">
+        <v>0.04969969725611597</v>
+      </c>
+      <c r="H28">
+        <v>0.01141552311207796</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01548647240234096</v>
+        <v>0.0127087350699433</v>
       </c>
       <c r="C29">
-        <v>0.01125615931582844</v>
+        <v>-0.01893639606406444</v>
       </c>
       <c r="D29">
-        <v>0.008377587792796874</v>
+        <v>0.006838170246560064</v>
       </c>
       <c r="E29">
-        <v>0.01838131234011034</v>
+        <v>-0.003796523120218997</v>
       </c>
       <c r="F29">
-        <v>0.02113529577171647</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.006093288238991317</v>
+      </c>
+      <c r="G29">
+        <v>0.02303477078772206</v>
+      </c>
+      <c r="H29">
+        <v>-0.02313297681457713</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04543964086477956</v>
+        <v>0.03900557756787608</v>
       </c>
       <c r="C30">
-        <v>-0.0413916644109359</v>
+        <v>-0.07373125269704245</v>
       </c>
       <c r="D30">
-        <v>0.07835706649458106</v>
+        <v>0.02667665537170448</v>
       </c>
       <c r="E30">
-        <v>0.06466140564376827</v>
+        <v>0.01590986794780057</v>
       </c>
       <c r="F30">
-        <v>-0.007727889772157874</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.04448188594732314</v>
+      </c>
+      <c r="G30">
+        <v>-0.01376520280970442</v>
+      </c>
+      <c r="H30">
+        <v>-0.01056243354560818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04522500283916674</v>
+        <v>0.04220884276540177</v>
       </c>
       <c r="C31">
-        <v>0.01683050042210826</v>
+        <v>-0.02754048246982795</v>
       </c>
       <c r="D31">
-        <v>0.02275531907690709</v>
+        <v>0.002360137788358971</v>
       </c>
       <c r="E31">
-        <v>-0.00298699401726934</v>
+        <v>-0.01772681709359898</v>
       </c>
       <c r="F31">
-        <v>0.0148949005009114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.02867968140347725</v>
+      </c>
+      <c r="G31">
+        <v>0.02341116540942973</v>
+      </c>
+      <c r="H31">
+        <v>-0.00425785444865348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001921320695472736</v>
+        <v>0.007925175516028872</v>
       </c>
       <c r="C32">
-        <v>0.03166190282326584</v>
+        <v>-0.03621247327054178</v>
       </c>
       <c r="D32">
-        <v>0.02092031159933238</v>
+        <v>-0.005303502573154152</v>
       </c>
       <c r="E32">
-        <v>0.01606996894854119</v>
+        <v>0.01422318996365345</v>
       </c>
       <c r="F32">
-        <v>-0.008031889453898043</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.07525799632205105</v>
+      </c>
+      <c r="G32">
+        <v>0.05092422046381393</v>
+      </c>
+      <c r="H32">
+        <v>-0.06899435244035704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03360682836074873</v>
+        <v>0.02991407662689313</v>
       </c>
       <c r="C33">
-        <v>-0.01488694936229881</v>
+        <v>-0.05205502110659461</v>
       </c>
       <c r="D33">
-        <v>0.03974778773659227</v>
+        <v>0.0134851349638726</v>
       </c>
       <c r="E33">
-        <v>0.04064377851638738</v>
+        <v>0.01481801431297088</v>
       </c>
       <c r="F33">
-        <v>0.01732813993436689</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.02527817181625767</v>
+      </c>
+      <c r="G33">
+        <v>0.0129410444933005</v>
+      </c>
+      <c r="H33">
+        <v>0.01458128576315836</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02664085678046045</v>
+        <v>0.0469262254512749</v>
       </c>
       <c r="C34">
-        <v>0.01693714892548852</v>
+        <v>-0.05308418515801187</v>
       </c>
       <c r="D34">
-        <v>0.04175067171880172</v>
+        <v>-0.006840588881802724</v>
       </c>
       <c r="E34">
-        <v>0.01366670861992947</v>
+        <v>-0.01649900657969334</v>
       </c>
       <c r="F34">
-        <v>-0.02560173941857645</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02277928965012734</v>
+      </c>
+      <c r="G34">
+        <v>0.02035020522172725</v>
+      </c>
+      <c r="H34">
+        <v>-0.0005239271030770491</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.0183854904668672</v>
+        <v>0.01037017561111758</v>
       </c>
       <c r="C36">
-        <v>0.003699202192688726</v>
+        <v>-0.004758525407816673</v>
       </c>
       <c r="D36">
-        <v>0.001415886826375048</v>
+        <v>0.01086839505263008</v>
       </c>
       <c r="E36">
-        <v>0.01537622369118105</v>
+        <v>-0.00109013162093995</v>
       </c>
       <c r="F36">
-        <v>0.0009918164561011735</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.001156325575711699</v>
+      </c>
+      <c r="G36">
+        <v>0.01373388663604956</v>
+      </c>
+      <c r="H36">
+        <v>0.0003516777705149141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02212777527937913</v>
+        <v>0.03154814627366739</v>
       </c>
       <c r="C38">
-        <v>0.002350897713984211</v>
+        <v>-0.02277818128913667</v>
       </c>
       <c r="D38">
-        <v>0.01745513249466066</v>
+        <v>-0.008636826999057929</v>
       </c>
       <c r="E38">
-        <v>0.0394209041850353</v>
+        <v>-0.004815614983689448</v>
       </c>
       <c r="F38">
-        <v>-0.002147678725012792</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.008317447023764437</v>
+      </c>
+      <c r="G38">
+        <v>0.02119793094417008</v>
+      </c>
+      <c r="H38">
+        <v>-0.007643056037600932</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0179149972424508</v>
+        <v>0.03121133332036518</v>
       </c>
       <c r="C39">
-        <v>0.01603347072215901</v>
+        <v>-0.08357793753059242</v>
       </c>
       <c r="D39">
-        <v>0.06422836208158192</v>
+        <v>0.01111463659987754</v>
       </c>
       <c r="E39">
-        <v>0.04596012339818328</v>
+        <v>0.005780681144197187</v>
       </c>
       <c r="F39">
-        <v>-0.03724446017838001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04107459414481724</v>
+      </c>
+      <c r="G39">
+        <v>0.01239607120410119</v>
+      </c>
+      <c r="H39">
+        <v>0.01185293033500919</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02755660069882997</v>
+        <v>0.02009856127632774</v>
       </c>
       <c r="C40">
-        <v>0.003667140917277518</v>
+        <v>-0.03169498666512099</v>
       </c>
       <c r="D40">
-        <v>0.04101453436790944</v>
+        <v>0.01248372489266185</v>
       </c>
       <c r="E40">
-        <v>0.03475142658839162</v>
+        <v>0.010461012826948</v>
       </c>
       <c r="F40">
-        <v>-0.03923193207927874</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.02393040286097987</v>
+      </c>
+      <c r="G40">
+        <v>0.0132154839115612</v>
+      </c>
+      <c r="H40">
+        <v>-0.001489681719540484</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01218855059216256</v>
+        <v>0.01066448930891064</v>
       </c>
       <c r="C41">
-        <v>-0.001709061926771629</v>
+        <v>0.002698908578828075</v>
       </c>
       <c r="D41">
-        <v>-0.009356931689170071</v>
+        <v>0.003047776377671647</v>
       </c>
       <c r="E41">
-        <v>0.004604586979867735</v>
+        <v>-0.008520517257437629</v>
       </c>
       <c r="F41">
-        <v>0.004580059482533571</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0004445065754881965</v>
+      </c>
+      <c r="G41">
+        <v>0.008931392277231302</v>
+      </c>
+      <c r="H41">
+        <v>-0.003803328466187605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1428258950220047</v>
+        <v>0.0413113947400555</v>
       </c>
       <c r="C42">
-        <v>-0.08404284946776125</v>
+        <v>-0.0585679546769869</v>
       </c>
       <c r="D42">
-        <v>0.1563094258389624</v>
+        <v>0.1040288895386235</v>
       </c>
       <c r="E42">
-        <v>0.1840346475098955</v>
+        <v>0.07910332070975712</v>
       </c>
       <c r="F42">
-        <v>0.09376997357902279</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1306065876181259</v>
+      </c>
+      <c r="G42">
+        <v>-0.2283795729896703</v>
+      </c>
+      <c r="H42">
+        <v>0.9250449298512652</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01785856537931713</v>
+        <v>0.02670443224388326</v>
       </c>
       <c r="C43">
-        <v>-0.003328999395064315</v>
+        <v>-0.006415478798502496</v>
       </c>
       <c r="D43">
-        <v>-0.005473260217065859</v>
+        <v>0.002934032743749322</v>
       </c>
       <c r="E43">
-        <v>0.008509909338808536</v>
+        <v>-0.005539145794243252</v>
       </c>
       <c r="F43">
-        <v>0.00994748940927211</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.003063360089645537</v>
+      </c>
+      <c r="G43">
+        <v>0.01083051165879009</v>
+      </c>
+      <c r="H43">
+        <v>-0.002590051347411368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01024768614161117</v>
+        <v>0.01687434247891427</v>
       </c>
       <c r="C44">
-        <v>0.01131054500023633</v>
+        <v>-0.04878497005206642</v>
       </c>
       <c r="D44">
-        <v>0.01625184437501942</v>
+        <v>0.006423131015910188</v>
       </c>
       <c r="E44">
-        <v>0.07191924482644561</v>
+        <v>0.01665462225018636</v>
       </c>
       <c r="F44">
-        <v>-0.003112719368442136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02489352688981572</v>
+      </c>
+      <c r="G44">
+        <v>0.0291420940336853</v>
+      </c>
+      <c r="H44">
+        <v>0.01405382778159028</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.007859306681887361</v>
+        <v>0.001145745200827225</v>
       </c>
       <c r="C46">
-        <v>0.005906220791841877</v>
+        <v>-0.01586024490484421</v>
       </c>
       <c r="D46">
-        <v>0.02532343376864297</v>
+        <v>0.0112631174336174</v>
       </c>
       <c r="E46">
-        <v>0.03825517514701417</v>
+        <v>-0.00626082950520007</v>
       </c>
       <c r="F46">
-        <v>0.02414400397741953</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.008686771467032008</v>
+      </c>
+      <c r="G46">
+        <v>0.0158690657150007</v>
+      </c>
+      <c r="H46">
+        <v>-0.02501903704842437</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06905663255390233</v>
+        <v>0.07224847510622109</v>
       </c>
       <c r="C47">
-        <v>0.00565179078950857</v>
+        <v>-0.060048747540588</v>
       </c>
       <c r="D47">
-        <v>0.03687920345095227</v>
+        <v>-0.005704122554382079</v>
       </c>
       <c r="E47">
-        <v>-0.03738375168253293</v>
+        <v>-0.02110909020190166</v>
       </c>
       <c r="F47">
-        <v>0.03957828815060766</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.06020157295355383</v>
+      </c>
+      <c r="G47">
+        <v>0.01358515251580787</v>
+      </c>
+      <c r="H47">
+        <v>-0.005961703557042251</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02800745864955511</v>
+        <v>0.0153434752860218</v>
       </c>
       <c r="C48">
-        <v>0.004434890469426915</v>
+        <v>-0.01046513126319429</v>
       </c>
       <c r="D48">
-        <v>0.006274469705056658</v>
+        <v>0.0006924189013077493</v>
       </c>
       <c r="E48">
-        <v>0.01638984940243861</v>
+        <v>-0.007044648234251599</v>
       </c>
       <c r="F48">
-        <v>-0.001504950473987685</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.0134711600026881</v>
+      </c>
+      <c r="G48">
+        <v>0.01548631464891747</v>
+      </c>
+      <c r="H48">
+        <v>-0.003342901385546956</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.07073070099047757</v>
+        <v>0.07624707256410861</v>
       </c>
       <c r="C50">
-        <v>0.03589623185723913</v>
+        <v>-0.06116736282465968</v>
       </c>
       <c r="D50">
-        <v>0.04804831268003223</v>
+        <v>-0.00461877871459654</v>
       </c>
       <c r="E50">
-        <v>-0.009995500976595783</v>
+        <v>-0.02106547130701445</v>
       </c>
       <c r="F50">
-        <v>0.06450168807560644</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.05810820288888353</v>
+      </c>
+      <c r="G50">
+        <v>0.03754970453826233</v>
+      </c>
+      <c r="H50">
+        <v>-0.008800504859302434</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01619084496730954</v>
+        <v>0.01757631962199244</v>
       </c>
       <c r="C51">
-        <v>0.005646805730362012</v>
+        <v>-0.029348378171921</v>
       </c>
       <c r="D51">
-        <v>-0.01539323747235765</v>
+        <v>0.008457576834669406</v>
       </c>
       <c r="E51">
-        <v>0.05900228278020059</v>
+        <v>0.007668108349898294</v>
       </c>
       <c r="F51">
-        <v>-0.006530944744337309</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.03535208167359795</v>
+      </c>
+      <c r="G51">
+        <v>0.03559231636724436</v>
+      </c>
+      <c r="H51">
+        <v>-0.006074228557494009</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09037726198125569</v>
+        <v>0.09831672437596957</v>
       </c>
       <c r="C53">
-        <v>0.02508057426691409</v>
+        <v>-0.07467532779779067</v>
       </c>
       <c r="D53">
-        <v>0.06604795833331784</v>
+        <v>-0.006881405539166259</v>
       </c>
       <c r="E53">
-        <v>-0.06060142134325482</v>
+        <v>-0.04125632727744798</v>
       </c>
       <c r="F53">
-        <v>0.02713991956537546</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.06807620892739856</v>
+      </c>
+      <c r="G53">
+        <v>0.01474291746574658</v>
+      </c>
+      <c r="H53">
+        <v>0.002367258513435606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02799216056000966</v>
+        <v>0.02823922654995253</v>
       </c>
       <c r="C54">
-        <v>0.008740292885351776</v>
+        <v>-0.003764486885909449</v>
       </c>
       <c r="D54">
-        <v>0.0009656976788894415</v>
+        <v>-0.004758985318657922</v>
       </c>
       <c r="E54">
-        <v>0.002133797676840331</v>
+        <v>0.0002409800604500124</v>
       </c>
       <c r="F54">
-        <v>0.007069820033126352</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.004212184025600433</v>
+      </c>
+      <c r="G54">
+        <v>0.02340585099093319</v>
+      </c>
+      <c r="H54">
+        <v>-0.02101259743734507</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06529087498584257</v>
+        <v>0.07368346227068413</v>
       </c>
       <c r="C55">
-        <v>0.0169474425753814</v>
+        <v>-0.06758339902628087</v>
       </c>
       <c r="D55">
-        <v>0.07611112566819776</v>
+        <v>-0.005784672061267798</v>
       </c>
       <c r="E55">
-        <v>-0.04086897952542887</v>
+        <v>-0.03077641801966328</v>
       </c>
       <c r="F55">
-        <v>0.04887435504467386</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.06307199982695888</v>
+      </c>
+      <c r="G55">
+        <v>0.003566470946244874</v>
+      </c>
+      <c r="H55">
+        <v>-0.005259080664802651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1276523381274883</v>
+        <v>0.1479564657350207</v>
       </c>
       <c r="C56">
-        <v>0.02258652449529491</v>
+        <v>-0.09579618742694258</v>
       </c>
       <c r="D56">
-        <v>0.09510001615368822</v>
+        <v>-0.01602087090706088</v>
       </c>
       <c r="E56">
-        <v>-0.0929158110241331</v>
+        <v>-0.04390946114165244</v>
       </c>
       <c r="F56">
-        <v>0.0212806040462928</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.1053724061378612</v>
+      </c>
+      <c r="G56">
+        <v>-0.007333350036452478</v>
+      </c>
+      <c r="H56">
+        <v>0.00248629813897706</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.03793986162233168</v>
+        <v>0.0156505634462708</v>
       </c>
       <c r="C57">
-        <v>-0.002914404587111804</v>
+        <v>-0.01117641061272242</v>
       </c>
       <c r="D57">
-        <v>0.02624664625480264</v>
+        <v>0.02356166439957699</v>
       </c>
       <c r="E57">
-        <v>0.04231103018123664</v>
+        <v>0.03157906486073023</v>
       </c>
       <c r="F57">
-        <v>-0.01453571574389081</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.01623547585014813</v>
+      </c>
+      <c r="G57">
+        <v>0.02251279587695889</v>
+      </c>
+      <c r="H57">
+        <v>0.005692590089387537</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1730194166166981</v>
+        <v>0.07226267256265592</v>
       </c>
       <c r="C58">
-        <v>-0.1150790032879476</v>
+        <v>-0.08089479067194308</v>
       </c>
       <c r="D58">
-        <v>0.1731503226698621</v>
+        <v>0.02053419272237724</v>
       </c>
       <c r="E58">
-        <v>0.58956055330575</v>
+        <v>0.9453764611407671</v>
       </c>
       <c r="F58">
-        <v>0.5782305136460977</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2225926665036358</v>
+      </c>
+      <c r="G58">
+        <v>0.06600600710640438</v>
+      </c>
+      <c r="H58">
+        <v>-0.1000079245354239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1389194117052088</v>
+        <v>0.1492832453009711</v>
       </c>
       <c r="C59">
-        <v>-0.06809148302128325</v>
+        <v>0.2155294217928639</v>
       </c>
       <c r="D59">
-        <v>-0.1924522683080317</v>
+        <v>-0.01843718324580459</v>
       </c>
       <c r="E59">
-        <v>0.04082316306390251</v>
+        <v>0.01580047461112216</v>
       </c>
       <c r="F59">
-        <v>-0.05491540085188857</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01347474747134794</v>
+      </c>
+      <c r="G59">
+        <v>0.0181983420108216</v>
+      </c>
+      <c r="H59">
+        <v>-0.002590581017030249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2106283846617971</v>
+        <v>0.2942838121727583</v>
       </c>
       <c r="C60">
-        <v>-0.03859439744853595</v>
+        <v>-0.08208053425562999</v>
       </c>
       <c r="D60">
-        <v>0.03031970929452677</v>
+        <v>0.00457794849293059</v>
       </c>
       <c r="E60">
-        <v>0.1622140782206423</v>
+        <v>0.02108728411959118</v>
       </c>
       <c r="F60">
-        <v>-0.394865238853003</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.3938542786330306</v>
+      </c>
+      <c r="G60">
+        <v>-0.04097833619264974</v>
+      </c>
+      <c r="H60">
+        <v>-0.05746329082897217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.03148151719655225</v>
+        <v>0.03205808399849298</v>
       </c>
       <c r="C61">
-        <v>0.009497566174565932</v>
+        <v>-0.06396381799648378</v>
       </c>
       <c r="D61">
-        <v>0.05585799059041403</v>
+        <v>0.004485114134534109</v>
       </c>
       <c r="E61">
-        <v>0.02808505853585195</v>
+        <v>0.0006070195127105434</v>
       </c>
       <c r="F61">
-        <v>-0.05209078125726142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.0271622280209799</v>
+      </c>
+      <c r="G61">
+        <v>0.01439810861206733</v>
+      </c>
+      <c r="H61">
+        <v>-0.002488730297769725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01760750413775134</v>
+        <v>0.01382305318266083</v>
       </c>
       <c r="C63">
-        <v>0.008747317684867183</v>
+        <v>-0.02786654233280496</v>
       </c>
       <c r="D63">
-        <v>0.0214384249490771</v>
+        <v>0.00729211228475281</v>
       </c>
       <c r="E63">
-        <v>0.002715089685583498</v>
+        <v>-0.01668693720285856</v>
       </c>
       <c r="F63">
-        <v>0.02411720750144938</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.006773675285417685</v>
+      </c>
+      <c r="G63">
+        <v>0.01927338268186533</v>
+      </c>
+      <c r="H63">
+        <v>-0.006496941426715907</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04697680478437977</v>
+        <v>0.04674821002239792</v>
       </c>
       <c r="C64">
-        <v>0.008896033873141813</v>
+        <v>-0.03545975927068985</v>
       </c>
       <c r="D64">
-        <v>0.0411980316865027</v>
+        <v>0.003915679682954976</v>
       </c>
       <c r="E64">
-        <v>0.01523289720989478</v>
+        <v>-0.01686844842852687</v>
       </c>
       <c r="F64">
-        <v>-0.01607642567098367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.01395785663382344</v>
+      </c>
+      <c r="G64">
+        <v>0.01128525617386333</v>
+      </c>
+      <c r="H64">
+        <v>0.03334387022955786</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06757579462095104</v>
+        <v>0.07789437994777954</v>
       </c>
       <c r="C65">
-        <v>0.01426064093481092</v>
+        <v>-0.06652525126575058</v>
       </c>
       <c r="D65">
-        <v>0.05364255089488282</v>
+        <v>0.01435692627420073</v>
       </c>
       <c r="E65">
-        <v>0.02253904341323002</v>
+        <v>-0.003227503794545515</v>
       </c>
       <c r="F65">
-        <v>-0.05662122069720399</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.03799867116447452</v>
+      </c>
+      <c r="G65">
+        <v>0.0081347978077023</v>
+      </c>
+      <c r="H65">
+        <v>-0.01497683930108909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03962310319953299</v>
+        <v>0.05287305265584447</v>
       </c>
       <c r="C66">
-        <v>0.0006884938469097538</v>
+        <v>-0.1179982044395241</v>
       </c>
       <c r="D66">
-        <v>0.08599877430318306</v>
+        <v>0.01014272904974047</v>
       </c>
       <c r="E66">
-        <v>0.02583340556281144</v>
+        <v>0.005910366391955475</v>
       </c>
       <c r="F66">
-        <v>-0.04843414132761949</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04819740207257189</v>
+      </c>
+      <c r="G66">
+        <v>0.001270658460759244</v>
+      </c>
+      <c r="H66">
+        <v>-0.009879345046935179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03841427338715529</v>
+        <v>0.05773306549401488</v>
       </c>
       <c r="C67">
-        <v>-0.0002945398772448208</v>
+        <v>-0.02469330920956705</v>
       </c>
       <c r="D67">
-        <v>0.0173352489448802</v>
+        <v>-0.00777059923183926</v>
       </c>
       <c r="E67">
-        <v>0.0193033206918448</v>
+        <v>-0.01042941319766534</v>
       </c>
       <c r="F67">
-        <v>-0.01092893985384156</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.006834081919394708</v>
+      </c>
+      <c r="G67">
+        <v>0.02041574725268622</v>
+      </c>
+      <c r="H67">
+        <v>-0.01263657366390543</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1211984660534253</v>
+        <v>0.1189543239894777</v>
       </c>
       <c r="C68">
-        <v>-0.06617199647934971</v>
+        <v>0.2689204434633963</v>
       </c>
       <c r="D68">
-        <v>-0.2101999160018435</v>
+        <v>0.00040634006535894</v>
       </c>
       <c r="E68">
-        <v>0.004930933137612444</v>
+        <v>0.01533387473528777</v>
       </c>
       <c r="F68">
-        <v>-0.005694704836189085</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01906916681444295</v>
+      </c>
+      <c r="G68">
+        <v>0.01798346576099148</v>
+      </c>
+      <c r="H68">
+        <v>0.01539394594492501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05162717726518705</v>
+        <v>0.07521061332467374</v>
       </c>
       <c r="C69">
-        <v>0.007305129031495783</v>
+        <v>-0.05755008293888753</v>
       </c>
       <c r="D69">
-        <v>0.04216485322010647</v>
+        <v>-0.01051711474415676</v>
       </c>
       <c r="E69">
-        <v>-0.02758072629856212</v>
+        <v>-0.03633228679706233</v>
       </c>
       <c r="F69">
-        <v>0.01252174874243678</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.03592603167050548</v>
+      </c>
+      <c r="G69">
+        <v>0.00940137755642631</v>
+      </c>
+      <c r="H69">
+        <v>-0.02027635973481487</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1119088193347496</v>
+        <v>0.1212671649099833</v>
       </c>
       <c r="C71">
-        <v>-0.05196153911972978</v>
+        <v>0.2259257955267543</v>
       </c>
       <c r="D71">
-        <v>-0.2078606154482006</v>
+        <v>-0.0086848936941488</v>
       </c>
       <c r="E71">
-        <v>0.02135428934541515</v>
+        <v>0.02079700010725774</v>
       </c>
       <c r="F71">
-        <v>0.03737659051968421</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.02348073895552692</v>
+      </c>
+      <c r="G71">
+        <v>0.03098873186998222</v>
+      </c>
+      <c r="H71">
+        <v>0.02805395076084057</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1240877501938941</v>
+        <v>0.0834151879705835</v>
       </c>
       <c r="C72">
-        <v>0.007231280499220614</v>
+        <v>-0.08218602731422005</v>
       </c>
       <c r="D72">
-        <v>0.1408696648975407</v>
+        <v>-0.009963815251219055</v>
       </c>
       <c r="E72">
-        <v>0.1082633868875628</v>
+        <v>-0.02086413672230153</v>
       </c>
       <c r="F72">
-        <v>-0.1777594991559234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.03410841813198968</v>
+      </c>
+      <c r="G72">
+        <v>-0.0085540112407212</v>
+      </c>
+      <c r="H72">
+        <v>-0.009499770322499379</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.26046033370029</v>
+        <v>0.3979712112523503</v>
       </c>
       <c r="C73">
-        <v>-0.09479305848618731</v>
+        <v>-0.09609218367263281</v>
       </c>
       <c r="D73">
-        <v>0.07492096006977934</v>
+        <v>0.008630626806299998</v>
       </c>
       <c r="E73">
-        <v>0.2381231333500432</v>
+        <v>0.07255800216882057</v>
       </c>
       <c r="F73">
-        <v>-0.4010717676361942</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.5324170137379807</v>
+      </c>
+      <c r="G73">
+        <v>-0.08371911690195186</v>
+      </c>
+      <c r="H73">
+        <v>0.06466066990209542</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1166174171382012</v>
+        <v>0.1173752171034628</v>
       </c>
       <c r="C74">
-        <v>0.01326915895397521</v>
+        <v>-0.1143077238575216</v>
       </c>
       <c r="D74">
-        <v>0.09748079630921298</v>
+        <v>-0.01135195592505588</v>
       </c>
       <c r="E74">
-        <v>-0.0800030901427632</v>
+        <v>-0.04153225930463122</v>
       </c>
       <c r="F74">
-        <v>0.008600930396545721</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07309270152367377</v>
+      </c>
+      <c r="G74">
+        <v>0.00699841340876994</v>
+      </c>
+      <c r="H74">
+        <v>0.001215852038406846</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2400087228924544</v>
+        <v>0.2595517325512648</v>
       </c>
       <c r="C75">
-        <v>0.01428426372862805</v>
+        <v>-0.1370116989241001</v>
       </c>
       <c r="D75">
-        <v>0.1531651499100977</v>
+        <v>-0.03294544970783063</v>
       </c>
       <c r="E75">
-        <v>-0.1612914266598104</v>
+        <v>-0.06274711432238775</v>
       </c>
       <c r="F75">
-        <v>0.0244452174219858</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.2203846082749678</v>
+      </c>
+      <c r="G75">
+        <v>-0.03512835606474267</v>
+      </c>
+      <c r="H75">
+        <v>-0.000711650463672594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2266775544153291</v>
+        <v>0.1483717976941174</v>
       </c>
       <c r="C76">
-        <v>0.03651209411143942</v>
+        <v>-0.1186676732835686</v>
       </c>
       <c r="D76">
-        <v>0.1561077694149667</v>
+        <v>-0.02462619640569369</v>
       </c>
       <c r="E76">
-        <v>-0.2306869478425022</v>
+        <v>-0.06987829351151148</v>
       </c>
       <c r="F76">
-        <v>0.04521436035453823</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1464694300078145</v>
+      </c>
+      <c r="G76">
+        <v>-0.003927606578804058</v>
+      </c>
+      <c r="H76">
+        <v>-0.0097135409781588</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04194406201699034</v>
+        <v>0.0568281153943959</v>
       </c>
       <c r="C77">
-        <v>0.008702218870329638</v>
+        <v>-0.06246592259426927</v>
       </c>
       <c r="D77">
-        <v>0.05291287265143112</v>
+        <v>0.01149013957750043</v>
       </c>
       <c r="E77">
-        <v>0.0769051599011131</v>
+        <v>0.03097249452809646</v>
       </c>
       <c r="F77">
-        <v>0.1128013400997326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.006280977865033124</v>
+      </c>
+      <c r="G77">
+        <v>0.03242044331922542</v>
+      </c>
+      <c r="H77">
+        <v>0.01664806436363233</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03085318737830656</v>
+        <v>0.04418147709893187</v>
       </c>
       <c r="C78">
-        <v>0.01264273632823161</v>
+        <v>-0.05406722135562182</v>
       </c>
       <c r="D78">
-        <v>0.04624990359767173</v>
+        <v>0.004674328380785013</v>
       </c>
       <c r="E78">
-        <v>0.06387394798359705</v>
+        <v>0.01579476130538434</v>
       </c>
       <c r="F78">
-        <v>-0.03209950024162714</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04473772550446635</v>
+      </c>
+      <c r="G78">
+        <v>0.02476878485168318</v>
+      </c>
+      <c r="H78">
+        <v>-0.01104366420452354</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.1957261918141948</v>
+        <v>0.06909245568860468</v>
       </c>
       <c r="C80">
-        <v>0.9304652808681527</v>
+        <v>-0.08026962959515523</v>
       </c>
       <c r="D80">
-        <v>-0.2092078281475693</v>
+        <v>0.01223689776013251</v>
       </c>
       <c r="E80">
-        <v>0.1316294880283688</v>
+        <v>-0.07513265602649843</v>
       </c>
       <c r="F80">
-        <v>0.02198734933754093</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.0272515483164294</v>
+      </c>
+      <c r="G80">
+        <v>0.9271637191982783</v>
+      </c>
+      <c r="H80">
+        <v>0.2181930850657784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.184516857614809</v>
+        <v>0.150355129609642</v>
       </c>
       <c r="C81">
-        <v>0.02174652894378356</v>
+        <v>-0.08820216610106764</v>
       </c>
       <c r="D81">
-        <v>0.1133623857519992</v>
+        <v>-0.01859411675827835</v>
       </c>
       <c r="E81">
-        <v>-0.1257308799597879</v>
+        <v>-0.04463318598893368</v>
       </c>
       <c r="F81">
-        <v>0.06399583459972225</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1392810608471166</v>
+      </c>
+      <c r="G81">
+        <v>0.003533489687329497</v>
+      </c>
+      <c r="H81">
+        <v>-0.007480489721024955</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.03849724171369338</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.02952735070041844</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.002128608701274374</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.02048159760180009</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.003100813187473645</v>
+      </c>
+      <c r="G82">
+        <v>-0.001019853006254471</v>
+      </c>
+      <c r="H82">
+        <v>-0.01681186619846204</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0344474542438798</v>
+        <v>0.03023293616185058</v>
       </c>
       <c r="C83">
-        <v>-0.00282807229161754</v>
+        <v>-0.01980378557460357</v>
       </c>
       <c r="D83">
-        <v>0.01509640266493567</v>
+        <v>0.004693108132862715</v>
       </c>
       <c r="E83">
-        <v>0.03920408672632979</v>
+        <v>0.02334477934878095</v>
       </c>
       <c r="F83">
-        <v>0.0145527152518542</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.0235365771025713</v>
+      </c>
+      <c r="G83">
+        <v>0.02630701006273237</v>
+      </c>
+      <c r="H83">
+        <v>-0.01081669167767838</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2225710348793715</v>
+        <v>0.2466848099958472</v>
       </c>
       <c r="C85">
-        <v>0.01166572231912512</v>
+        <v>-0.145120891139503</v>
       </c>
       <c r="D85">
-        <v>0.1832317192463452</v>
+        <v>-0.02242239999206156</v>
       </c>
       <c r="E85">
-        <v>-0.1789952023363848</v>
+        <v>-0.1062076488767072</v>
       </c>
       <c r="F85">
-        <v>0.03991787053601741</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.2068805871100393</v>
+      </c>
+      <c r="G85">
+        <v>-0.06588279919319681</v>
+      </c>
+      <c r="H85">
+        <v>0.001710689021043389</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01562220228839905</v>
+        <v>0.01006163070904779</v>
       </c>
       <c r="C86">
-        <v>0.009756133941025466</v>
+        <v>-0.02359825848425802</v>
       </c>
       <c r="D86">
-        <v>0.02462266368035682</v>
+        <v>0.009302996398123247</v>
       </c>
       <c r="E86">
-        <v>0.05384895128404849</v>
+        <v>0.01604488871855754</v>
       </c>
       <c r="F86">
-        <v>0.02366036634949813</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01935514295624104</v>
+      </c>
+      <c r="G86">
+        <v>0.0455906376590627</v>
+      </c>
+      <c r="H86">
+        <v>0.03076198872801622</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02925988021197232</v>
+        <v>0.01842192126706368</v>
       </c>
       <c r="C87">
-        <v>0.00917291468522264</v>
+        <v>-0.02673616205761609</v>
       </c>
       <c r="D87">
-        <v>0.02958902498758112</v>
+        <v>0.01090483676100163</v>
       </c>
       <c r="E87">
-        <v>0.1039840865151869</v>
+        <v>0.07705754555150039</v>
       </c>
       <c r="F87">
-        <v>-0.03302639128166664</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.06082593168863858</v>
+      </c>
+      <c r="G87">
+        <v>0.03762252223492142</v>
+      </c>
+      <c r="H87">
+        <v>0.01010732976983906</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05023246827847891</v>
+        <v>0.08429799453097339</v>
       </c>
       <c r="C88">
-        <v>-0.007153094714427553</v>
+        <v>-0.05253287463064336</v>
       </c>
       <c r="D88">
-        <v>0.008587640715725006</v>
+        <v>0.02027702719013769</v>
       </c>
       <c r="E88">
-        <v>-0.002616457450809186</v>
+        <v>-0.02137674057623811</v>
       </c>
       <c r="F88">
-        <v>-0.02308768212562429</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.006742941818271636</v>
+      </c>
+      <c r="G88">
+        <v>0.01885913948258709</v>
+      </c>
+      <c r="H88">
+        <v>-0.02283016300671799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2208858501874378</v>
+        <v>0.2169193615111631</v>
       </c>
       <c r="C89">
-        <v>-0.1271416856400469</v>
+        <v>0.378381054498725</v>
       </c>
       <c r="D89">
-        <v>-0.354222013000267</v>
+        <v>-0.01189665971109675</v>
       </c>
       <c r="E89">
-        <v>-0.01100702273887952</v>
+        <v>-0.007228210098466583</v>
       </c>
       <c r="F89">
-        <v>0.008337947016906936</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02673917056129415</v>
+      </c>
+      <c r="G89">
+        <v>0.02504472592829169</v>
+      </c>
+      <c r="H89">
+        <v>-0.005539341495920005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1379861985998058</v>
+        <v>0.1779954953302183</v>
       </c>
       <c r="C90">
-        <v>-0.1109972894985232</v>
+        <v>0.3392641445366508</v>
       </c>
       <c r="D90">
-        <v>-0.3054930652509317</v>
+        <v>-0.01353690849855803</v>
       </c>
       <c r="E90">
-        <v>-0.05172215384093531</v>
+        <v>0.005911011620743749</v>
       </c>
       <c r="F90">
-        <v>0.06284933674848929</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.04048437726153126</v>
+      </c>
+      <c r="G90">
+        <v>0.002272977597585277</v>
+      </c>
+      <c r="H90">
+        <v>0.007434930305359176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2466601070671935</v>
+        <v>0.2143340894323031</v>
       </c>
       <c r="C91">
-        <v>0.01745459762350504</v>
+        <v>-0.1302422946087326</v>
       </c>
       <c r="D91">
-        <v>0.1873788181259359</v>
+        <v>-0.02746245436333254</v>
       </c>
       <c r="E91">
-        <v>-0.2409583383872468</v>
+        <v>-0.08708309197643554</v>
       </c>
       <c r="F91">
-        <v>0.04218101544877732</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.1949176119051653</v>
+      </c>
+      <c r="G91">
+        <v>-0.0241146484893682</v>
+      </c>
+      <c r="H91">
+        <v>-0.002044830674158311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.2871486250353256</v>
+        <v>0.2136093513406414</v>
       </c>
       <c r="C92">
-        <v>-0.106371959154475</v>
+        <v>0.2729491339394789</v>
       </c>
       <c r="D92">
-        <v>-0.2685554417463592</v>
+        <v>-0.05767312932146457</v>
       </c>
       <c r="E92">
-        <v>-0.1438846505004556</v>
+        <v>0.0002085355727162192</v>
       </c>
       <c r="F92">
-        <v>0.2339883121736681</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1397018658190669</v>
+      </c>
+      <c r="G92">
+        <v>0.04752039019331972</v>
+      </c>
+      <c r="H92">
+        <v>-0.0108337976420065</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1999006804507051</v>
+        <v>0.2034462909134035</v>
       </c>
       <c r="C93">
-        <v>-0.1428205788357027</v>
+        <v>0.3371445707800533</v>
       </c>
       <c r="D93">
-        <v>-0.3511670836916883</v>
+        <v>-0.0204494259825608</v>
       </c>
       <c r="E93">
-        <v>-0.02020454711731206</v>
+        <v>0.01824054405246149</v>
       </c>
       <c r="F93">
-        <v>-0.0010532072075784</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.01132658786374574</v>
+      </c>
+      <c r="G93">
+        <v>-0.002713241847987827</v>
+      </c>
+      <c r="H93">
+        <v>0.03629763501810033</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3011517017951233</v>
+        <v>0.2883709497251561</v>
       </c>
       <c r="C94">
-        <v>-0.02147420370364065</v>
+        <v>-0.1469074121642244</v>
       </c>
       <c r="D94">
-        <v>0.1698361599985992</v>
+        <v>-0.01642981994088134</v>
       </c>
       <c r="E94">
-        <v>-0.24112167947617</v>
+        <v>-0.1013242544285443</v>
       </c>
       <c r="F94">
-        <v>0.1245757595493635</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3646463063846452</v>
+      </c>
+      <c r="G94">
+        <v>-0.1341303476930061</v>
+      </c>
+      <c r="H94">
+        <v>-0.2161559024615338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.084819556594028</v>
+        <v>0.07707967527264926</v>
       </c>
       <c r="C95">
-        <v>-0.07316073730430854</v>
+        <v>-0.08130215077141865</v>
       </c>
       <c r="D95">
-        <v>0.05674756462282878</v>
+        <v>-0.007770969924563365</v>
       </c>
       <c r="E95">
-        <v>0.0130470498781467</v>
+        <v>0.07657246087772711</v>
       </c>
       <c r="F95">
-        <v>-0.08199341998590966</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.1424543835779325</v>
+      </c>
+      <c r="G95">
+        <v>-0.06215065916744045</v>
+      </c>
+      <c r="H95">
+        <v>0.02567934673182119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2154314478340109</v>
+        <v>0.2162028832698708</v>
       </c>
       <c r="C98">
-        <v>-0.06342439889124839</v>
+        <v>-0.04342666129979922</v>
       </c>
       <c r="D98">
-        <v>0.02088693352402191</v>
+        <v>-0.02063007315875277</v>
       </c>
       <c r="E98">
-        <v>0.2419782940540135</v>
+        <v>0.06890979030127045</v>
       </c>
       <c r="F98">
-        <v>-0.3560378959378961</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.2590127684718516</v>
+      </c>
+      <c r="G98">
+        <v>-0.02477595283757602</v>
+      </c>
+      <c r="H98">
+        <v>0.04394311494999597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.02913748285919544</v>
+        <v>0.01418815016261608</v>
       </c>
       <c r="C101">
-        <v>0.003064593548092893</v>
+        <v>-0.02022073498680513</v>
       </c>
       <c r="D101">
-        <v>0.02299790338590025</v>
+        <v>0.008032727527943286</v>
       </c>
       <c r="E101">
-        <v>0.1190583458849719</v>
+        <v>0.0340280241433296</v>
       </c>
       <c r="F101">
-        <v>0.1718564603932951</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.02491277767984834</v>
+      </c>
+      <c r="G101">
+        <v>0.02917681498051888</v>
+      </c>
+      <c r="H101">
+        <v>-0.02435777043183969</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1267403578452512</v>
+        <v>0.1250116713871587</v>
       </c>
       <c r="C102">
-        <v>0.009062755662197386</v>
+        <v>-0.07598651661208075</v>
       </c>
       <c r="D102">
-        <v>0.08257045304713448</v>
+        <v>-0.001596414235771627</v>
       </c>
       <c r="E102">
-        <v>-0.1091115974100075</v>
+        <v>-0.04729577925028686</v>
       </c>
       <c r="F102">
-        <v>0.03973274718111262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.06257701192693202</v>
+      </c>
+      <c r="G102">
+        <v>-0.0187939177575055</v>
+      </c>
+      <c r="H102">
+        <v>0.00972782183211434</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03178538867642621</v>
+        <v>0.006766266477469187</v>
       </c>
       <c r="C103">
-        <v>0.01783081916158326</v>
+        <v>-0.005906188394992489</v>
       </c>
       <c r="D103">
-        <v>0.02335892729962044</v>
+        <v>0.0001947529681751715</v>
       </c>
       <c r="E103">
-        <v>-0.01428486762983074</v>
+        <v>-0.001889559928880218</v>
       </c>
       <c r="F103">
-        <v>0.001045648769757356</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.01091490419626401</v>
+      </c>
+      <c r="G103">
+        <v>0.01328709406081226</v>
+      </c>
+      <c r="H103">
+        <v>0.005850028004296247</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.04840139008151736</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.0478057978403703</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9854070900524868</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.04411555617523381</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.03502913675457681</v>
+      </c>
+      <c r="G104">
+        <v>0.0006513313486392416</v>
+      </c>
+      <c r="H104">
+        <v>-0.09865710184353611</v>
       </c>
     </row>
   </sheetData>
